--- a/Item Problems.xlsx
+++ b/Item Problems.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbruot.LABTESTING\Documents\Phase2_BOM\OpsAndMats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbruot.LABTESTING\Documents\Phase2_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81D1BA0-FFB3-4740-9255-B3D3BB3D6399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1088CA-5B99-48B6-9679-F70A597AE24F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5670" yWindow="2610" windowWidth="18615" windowHeight="12720" xr2:uid="{69584755-931C-4853-9D92-B9927177CA1E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Item Number</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Model 259A Full assembly needs to be added</t>
+  </si>
+  <si>
+    <t>Item 47, P/N 1421701 is wrong</t>
+  </si>
+  <si>
+    <t>P/N should be 1421710</t>
   </si>
 </sst>
 </file>
@@ -415,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C664A493-A320-4F46-B669-249C16636E64}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,6 +480,17 @@
       </c>
       <c r="C5" s="2"/>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8034712</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>

--- a/Item Problems.xlsx
+++ b/Item Problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbruot.LABTESTING\Documents\Phase2_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1088CA-5B99-48B6-9679-F70A597AE24F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66544CFE-E98C-4CBF-ACB5-EA291ABCAD39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5670" yWindow="2610" windowWidth="18615" windowHeight="12720" xr2:uid="{69584755-931C-4853-9D92-B9927177CA1E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Item Number</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>P/N should be 1421710</t>
+  </si>
+  <si>
+    <t>1330903-1</t>
+  </si>
+  <si>
+    <t>, 4-403/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#4-40 x 3/8" Lg. </t>
   </si>
 </sst>
 </file>
@@ -421,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C664A493-A320-4F46-B669-249C16636E64}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,6 +500,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>

--- a/Item Problems.xlsx
+++ b/Item Problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbruot.LABTESTING\Documents\Phase2_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66544CFE-E98C-4CBF-ACB5-EA291ABCAD39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3869A75F-EE98-47CE-A031-D9A8DA5F8C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="2610" windowWidth="18615" windowHeight="12720" xr2:uid="{69584755-931C-4853-9D92-B9927177CA1E}"/>
+    <workbookView xWindow="31620" yWindow="1260" windowWidth="18615" windowHeight="12720" xr2:uid="{69584755-931C-4853-9D92-B9927177CA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Item Number</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t xml:space="preserve">#4-40 x 3/8" Lg. </t>
+  </si>
+  <si>
+    <t>Need to have it be a -1 &amp; -2</t>
+  </si>
+  <si>
+    <t>added into system</t>
   </si>
 </sst>
 </file>
@@ -430,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C664A493-A320-4F46-B669-249C16636E64}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,6 +517,30 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8027084</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8035544</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8035545</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>

--- a/Item Problems.xlsx
+++ b/Item Problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbruot.LABTESTING\Documents\Phase2_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3869A75F-EE98-47CE-A031-D9A8DA5F8C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8632156D-A7B7-4331-98A0-52FAF41ED771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="1260" windowWidth="18615" windowHeight="12720" xr2:uid="{69584755-931C-4853-9D92-B9927177CA1E}"/>
+    <workbookView xWindow="5880" yWindow="960" windowWidth="18615" windowHeight="12720" xr2:uid="{69584755-931C-4853-9D92-B9927177CA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Item Number</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>added into system</t>
+  </si>
+  <si>
+    <t>8034713-??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete all A &amp; B and then add bill </t>
+  </si>
+  <si>
+    <t>8034694-x</t>
+  </si>
+  <si>
+    <t>Added -2 and move no -# from system</t>
   </si>
 </sst>
 </file>
@@ -436,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C664A493-A320-4F46-B669-249C16636E64}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,6 +553,22 @@
         <v>14</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>

--- a/Item Problems.xlsx
+++ b/Item Problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbruot.LABTESTING\Documents\Phase2_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8632156D-A7B7-4331-98A0-52FAF41ED771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE94F3A8-B92E-411A-9534-CBB95A354FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="960" windowWidth="18615" windowHeight="12720" xr2:uid="{69584755-931C-4853-9D92-B9927177CA1E}"/>
+    <workbookView xWindow="4365" yWindow="2070" windowWidth="18615" windowHeight="12720" xr2:uid="{69584755-931C-4853-9D92-B9927177CA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Item Number</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Fixed Text</t>
   </si>
   <si>
-    <t>SHCS, 10-321/8, St. Stl.</t>
-  </si>
-  <si>
-    <t>SHCS, 10-32, 1/8, St. Stl.</t>
-  </si>
-  <si>
     <t>Need to update for moving parts to B35353</t>
   </si>
   <si>
@@ -64,15 +58,6 @@
   </si>
   <si>
     <t>P/N should be 1421710</t>
-  </si>
-  <si>
-    <t>1330903-1</t>
-  </si>
-  <si>
-    <t>, 4-403/8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#4-40 x 3/8" Lg. </t>
   </si>
   <si>
     <t>Need to have it be a -1 &amp; -2</t>
@@ -451,7 +436,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,23 +463,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1421701</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8034712</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -503,7 +477,7 @@
         <v>8035544</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -512,21 +486,10 @@
         <v>8034712</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -534,7 +497,7 @@
         <v>8027084</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -542,7 +505,7 @@
         <v>8035544</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -550,23 +513,23 @@
         <v>8035545</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
